--- a/server/resource/excel/product.xlsx
+++ b/server/resource/excel/product.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <r>
       <t xml:space="preserve">        S&amp;L FOOD TRADING LTD
@@ -67,6 +67,15 @@
   <si>
     <t>PRICE</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>dfasdf 23</t>
+  </si>
+  <si>
+    <t>asfasdf</t>
   </si>
   <si>
     <t>S01303</t>
@@ -1052,74 +1061,72 @@
       <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="D4" s="11"/>
       <c r="E4" s="12">
-        <v>39</v>
-      </c>
-      <c r="F4" s="12">
-        <v>100</v>
+        <v>-1</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="true">
       <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="17">
-        <v>10</v>
-      </c>
-      <c r="F5" s="17">
-        <v>80</v>
+        <v>39</v>
+      </c>
+      <c r="F5" s="18">
+        <v>100</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="12">
-        <v>29</v>
-      </c>
-      <c r="F6" s="12">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="F6" s="13">
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" s="17">
-        <v>9</v>
-      </c>
-      <c r="F7" s="17">
-        <v>120</v>
+        <v>29</v>
+      </c>
+      <c r="F7" s="18">
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="true">
@@ -1133,32 +1140,52 @@
         <v>24</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E8" s="12">
-        <v>19</v>
-      </c>
-      <c r="F8" s="12">
-        <v>150</v>
+        <v>9</v>
+      </c>
+      <c r="F8" s="13">
+        <v>120</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="17">
+        <v>19</v>
+      </c>
+      <c r="F9" s="18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="17">
+      <c r="B10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="12">
         <v>4</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="13">
         <v>100</v>
       </c>
     </row>
